--- a/TableData/skill_table.xlsx
+++ b/TableData/skill_table.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>index</t>
   </si>
@@ -47,6 +47,36 @@
   </si>
   <si>
     <t>RANGE</t>
+  </si>
+  <si>
+    <t>COOLTIME</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>#1 공격</t>
+  </si>
+  <si>
+    <t>#1 근접</t>
+  </si>
+  <si>
+    <t># 스킬 코드, 0000 ~ 9999</t>
+  </si>
+  <si>
+    <t>#2 레인지</t>
+  </si>
+  <si>
+    <t>#2 마법</t>
+  </si>
+  <si>
+    <t># 1 버프</t>
+  </si>
+  <si>
+    <t># 2 디버프</t>
   </si>
   <si>
     <t>#1.공격, 2,마법</t>
@@ -56,27 +86,6 @@
 #2 레인지
 # 3 버프
 # 4 디버프</t>
-  </si>
-  <si>
-    <t>#1 공격</t>
-  </si>
-  <si>
-    <t>#1 근접</t>
-  </si>
-  <si>
-    <t># 스킬 코드, 0000 ~ 9999</t>
-  </si>
-  <si>
-    <t>#2 레인지</t>
-  </si>
-  <si>
-    <t>#2 마법</t>
-  </si>
-  <si>
-    <t># 1 버프</t>
-  </si>
-  <si>
-    <t># 2 디버프</t>
   </si>
 </sst>
 </file>
@@ -380,14 +389,49 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -406,6 +450,9 @@
       <c r="L3" s="1">
         <v>0.1</v>
       </c>
+      <c r="M3" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -423,6 +470,9 @@
       <c r="L4" s="1">
         <v>0.1</v>
       </c>
+      <c r="M4" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -440,6 +490,9 @@
       <c r="L5" s="1">
         <v>0.1</v>
       </c>
+      <c r="M5" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -457,6 +510,9 @@
       <c r="L6" s="1">
         <v>0.1</v>
       </c>
+      <c r="M6" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -474,6 +530,9 @@
       <c r="L7" s="1">
         <v>0.1</v>
       </c>
+      <c r="M7" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -491,6 +550,9 @@
       <c r="L8" s="1">
         <v>0.1</v>
       </c>
+      <c r="M8" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -508,6 +570,9 @@
       <c r="L9" s="1">
         <v>0.1</v>
       </c>
+      <c r="M9" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -525,6 +590,9 @@
       <c r="L10" s="1">
         <v>0.1</v>
       </c>
+      <c r="M10" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -542,6 +610,9 @@
       <c r="L11" s="1">
         <v>0.1</v>
       </c>
+      <c r="M11" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -559,6 +630,9 @@
       <c r="L12" s="1">
         <v>0.1</v>
       </c>
+      <c r="M12" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -573,6 +647,9 @@
       <c r="G13" s="1">
         <v>0.1</v>
       </c>
+      <c r="M13" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -587,6 +664,9 @@
       <c r="G14" s="1">
         <v>0.1</v>
       </c>
+      <c r="M14" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
@@ -601,6 +681,9 @@
       <c r="G15" s="1">
         <v>0.1</v>
       </c>
+      <c r="M15" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
@@ -615,6 +698,9 @@
       <c r="G16" s="1">
         <v>0.1</v>
       </c>
+      <c r="M16" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
@@ -629,6 +715,9 @@
       <c r="G17" s="1">
         <v>0.1</v>
       </c>
+      <c r="M17" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -640,6 +729,9 @@
       <c r="C18" s="1">
         <v>4.0</v>
       </c>
+      <c r="M18" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -651,6 +743,9 @@
       <c r="C19" s="1">
         <v>4.0</v>
       </c>
+      <c r="M19" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -662,6 +757,9 @@
       <c r="C20" s="1">
         <v>4.0</v>
       </c>
+      <c r="M20" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
@@ -673,6 +771,9 @@
       <c r="C21" s="1">
         <v>4.0</v>
       </c>
+      <c r="M21" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
@@ -684,37 +785,48 @@
       <c r="C22" s="1">
         <v>4.0</v>
       </c>
+      <c r="M22" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
